--- a/Eclipse Menu Restructuring.xlsx
+++ b/Eclipse Menu Restructuring.xlsx
@@ -1,37 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Marketing\Product Design\Yatta Platform\Profiles for Eclipse\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Marketing\Product Design\Yatta Platform\Profiles for Eclipse\Yatta Plug-In\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54FE2D1-FE58-4C66-A280-FA83076DA8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="38700" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="3" r:id="rId1"/>
     <sheet name="Menus" sheetId="4" r:id="rId2"/>
     <sheet name="Restructured" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Carsten Reckord</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0" shapeId="0">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -426,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -501,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -527,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -553,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2876,7 +2885,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3077,30 +3086,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3837,6 +3822,30 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3851,8 +3860,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:N264" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
-  <autoFilter ref="A1:N264">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:N264" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+  <autoFilter ref="A1:N264" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -3870,20 +3879,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="Enabled" dataDxfId="52"/>
-    <tableColumn id="2" name="Visible" dataDxfId="51"/>
-    <tableColumn id="3" name="Depth" dataDxfId="50"/>
-    <tableColumn id="4" name="Type" dataDxfId="49"/>
-    <tableColumn id="5" name="Class" dataDxfId="48"/>
-    <tableColumn id="6" name="Contributor" dataDxfId="47"/>
-    <tableColumn id="7" name="Id" dataDxfId="46"/>
-    <tableColumn id="8" name="Label" dataDxfId="45"/>
-    <tableColumn id="9" name="Mnemonic" dataDxfId="44"/>
-    <tableColumn id="10" name="Path[0]" dataDxfId="43"/>
-    <tableColumn id="11" name="Path[1]" dataDxfId="42"/>
-    <tableColumn id="12" name="Path[2]" dataDxfId="41"/>
-    <tableColumn id="13" name="Path[3]" dataDxfId="40"/>
-    <tableColumn id="14" name="Filter" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Enabled" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Visible" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Depth" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Class" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Contributor" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Id" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Label" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mnemonic" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Path[0]" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Path[1]" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Path[2]" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Path[3]" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Filter" dataDxfId="36">
       <calculatedColumnFormula>IF(Tabelle2[[#This Row],[Visible]]="true",IF(Tabelle2[[#This Row],[Enabled]]="true","enabled ","disabled "),"hidden ") &amp; Tabelle2[[#This Row],[Type]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4187,7 +4196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14119,15 +14128,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H264">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="55" priority="6">
       <formula>AND(LEFT(H2,1)&lt;&gt;" ",RIGHT(H2,1)="&gt;")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H264">
-    <cfRule type="endsWith" dxfId="37" priority="4" operator="endsWith" text="]">
+    <cfRule type="endsWith" dxfId="54" priority="4" operator="endsWith" text="]">
       <formula>RIGHT(H1,LEN("]"))="]"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="36" priority="5" operator="endsWith" text="&gt;">
+    <cfRule type="endsWith" dxfId="53" priority="5" operator="endsWith" text="&gt;">
       <formula>RIGHT(H1,LEN("&gt;"))="&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14140,7 +14149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
@@ -15469,11 +15478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
